--- a/ConvertedEqual/Kansas_Converted.xlsx
+++ b/ConvertedEqual/Kansas_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="276">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -807,6 +807,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA221"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1593,7 @@
         <v>0.2</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1569,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2985,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3068,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3151,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3234,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3317,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3400,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3483,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3566,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3649,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3732,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3815,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3898,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3981,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4064,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -4147,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4230,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4313,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4396,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4479,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4562,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4645,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4728,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4811,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4894,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4977,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5060,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -5143,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -5226,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5309,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5392,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5475,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5558,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5641,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5724,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5807,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5890,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5973,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -6056,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -6139,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -6222,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -6305,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -6388,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -6471,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6554,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -6637,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -6720,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6803,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -6886,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -6969,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -7052,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -7135,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -7218,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -7301,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -7384,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -7467,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7550,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -7633,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -7716,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -7799,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -7882,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -7965,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -8048,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -8131,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.5769230769153846</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -8214,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.4615384615384616</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -8297,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.4615384615384616</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -8380,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.4615384615384616</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -8463,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>0.4615384615384616</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -8546,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -8629,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -8712,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -8795,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -8878,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -8961,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -9044,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -9127,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -9210,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -9293,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -9376,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -9459,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -9542,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:27">
@@ -9625,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -9708,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -9791,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -9874,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.2846153846153846</v>
+        <v>0.3083333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -9957,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -10040,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -10123,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="AA111">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -10206,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -10289,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -10372,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -10455,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -10538,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -10621,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -10704,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -10787,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="AA119">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -10870,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="AA120">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -10953,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="AA121">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:27">
@@ -11036,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -11119,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -11202,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -11285,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -11368,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -11451,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -11534,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -11617,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -11700,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -11783,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -11866,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -11949,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="AA133">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -12032,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AA134">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -12115,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="AA135">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -12198,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="AA136">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -12281,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="AA137">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:27">
@@ -12364,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="AA138">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -12447,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -12530,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -12613,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="AA141">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -12696,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:27">
@@ -12779,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -12862,7 +12898,7 @@
         <v>1</v>
       </c>
       <c r="AA144">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -12945,7 +12981,7 @@
         <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -13028,7 +13064,7 @@
         <v>1</v>
       </c>
       <c r="AA146">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -13111,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="AA147">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -13194,7 +13230,7 @@
         <v>1</v>
       </c>
       <c r="AA148">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -13277,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="AA149">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -13360,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="AA150">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -13443,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="AA151">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -13526,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="AA152">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -13609,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="AA153">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -13692,7 +13728,7 @@
         <v>1</v>
       </c>
       <c r="AA154">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -13775,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="AA155">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -13858,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="AA156">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -13941,7 +13977,7 @@
         <v>1</v>
       </c>
       <c r="AA157">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -14024,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="AA158">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -14107,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="AA159">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -14190,7 +14226,7 @@
         <v>1</v>
       </c>
       <c r="AA160">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -14273,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="AA161">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -14356,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="AA162">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -14439,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="AA163">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164" spans="1:27">
@@ -14522,7 +14558,7 @@
         <v>1</v>
       </c>
       <c r="AA164">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:27">
@@ -14605,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="AA165">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -14688,7 +14724,7 @@
         <v>1</v>
       </c>
       <c r="AA166">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -14771,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="AA167">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -14854,7 +14890,7 @@
         <v>1</v>
       </c>
       <c r="AA168">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:27">
@@ -14937,7 +14973,7 @@
         <v>1</v>
       </c>
       <c r="AA169">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -15020,7 +15056,7 @@
         <v>1</v>
       </c>
       <c r="AA170">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -15103,7 +15139,7 @@
         <v>1</v>
       </c>
       <c r="AA171">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -15186,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="AA172">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -15269,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="AA173">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -15352,7 +15388,7 @@
         <v>1</v>
       </c>
       <c r="AA174">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -15435,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="AA175">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -15518,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="AA176">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -15601,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="AA177">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -15684,7 +15720,7 @@
         <v>1</v>
       </c>
       <c r="AA178">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:27">
@@ -15767,7 +15803,7 @@
         <v>1</v>
       </c>
       <c r="AA179">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -15850,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="AA180">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -15933,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="AA181">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -16016,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="AA182">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -16099,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="AA183">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -16182,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="AA184">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -16265,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="AA185">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -16348,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="AA186">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:27">
@@ -16431,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="AA187">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -16514,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -16597,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -16680,7 +16716,7 @@
         <v>1</v>
       </c>
       <c r="AA190">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:27">
@@ -16763,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="AA191">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:27">
@@ -16846,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="AA192">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -16929,7 +16965,7 @@
         <v>1</v>
       </c>
       <c r="AA193">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:27">
@@ -17012,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AA194">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:27">
@@ -17095,7 +17131,7 @@
         <v>1</v>
       </c>
       <c r="AA195">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:27">
@@ -17178,7 +17214,7 @@
         <v>1</v>
       </c>
       <c r="AA196">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:27">
@@ -17261,7 +17297,7 @@
         <v>1</v>
       </c>
       <c r="AA197">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:27">
@@ -17344,7 +17380,7 @@
         <v>1</v>
       </c>
       <c r="AA198">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:27">
@@ -17427,7 +17463,7 @@
         <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:27">
@@ -17510,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AA200">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:27">
@@ -17593,7 +17629,7 @@
         <v>1</v>
       </c>
       <c r="AA201">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -17676,7 +17712,7 @@
         <v>1</v>
       </c>
       <c r="AA202">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -17759,7 +17795,7 @@
         <v>1</v>
       </c>
       <c r="AA203">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -17842,7 +17878,7 @@
         <v>1</v>
       </c>
       <c r="AA204">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:27">
@@ -17925,7 +17961,7 @@
         <v>1</v>
       </c>
       <c r="AA205">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:27">
@@ -18008,7 +18044,7 @@
         <v>1</v>
       </c>
       <c r="AA206">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -18091,7 +18127,7 @@
         <v>1</v>
       </c>
       <c r="AA207">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -18174,7 +18210,7 @@
         <v>1</v>
       </c>
       <c r="AA208">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -18257,7 +18293,7 @@
         <v>1</v>
       </c>
       <c r="AA209">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:27">
@@ -18340,7 +18376,7 @@
         <v>1</v>
       </c>
       <c r="AA210">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:27">
@@ -18423,7 +18459,7 @@
         <v>1</v>
       </c>
       <c r="AA211">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:27">
@@ -18506,7 +18542,7 @@
         <v>1</v>
       </c>
       <c r="AA212">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:27">
@@ -18589,7 +18625,7 @@
         <v>1</v>
       </c>
       <c r="AA213">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:27">
@@ -18672,7 +18708,7 @@
         <v>1</v>
       </c>
       <c r="AA214">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:27">
@@ -18755,7 +18791,7 @@
         <v>1</v>
       </c>
       <c r="AA215">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:27">
@@ -18838,7 +18874,7 @@
         <v>1</v>
       </c>
       <c r="AA216">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:27">
@@ -18921,7 +18957,7 @@
         <v>1</v>
       </c>
       <c r="AA217">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:27">
@@ -19004,7 +19040,7 @@
         <v>1</v>
       </c>
       <c r="AA218">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:27">
@@ -19087,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="AA219">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:27">
@@ -19170,7 +19206,7 @@
         <v>1</v>
       </c>
       <c r="AA220">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -19253,7 +19289,1003 @@
         <v>1</v>
       </c>
       <c r="AA221">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
+      <c r="A222" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
+      <c r="A223" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>1</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
+      <c r="A224" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
+      <c r="A231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
+      <c r="A232" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
+      <c r="A233" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
